--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_2_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1400448.531725288</v>
+        <v>-1254952.976216946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111709</v>
+        <v>6549343.963692144</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12330852.02918342</v>
+        <v>12361462.1875571</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>4.235841136991849</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>279.6120296035444</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.8201079258493</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>16.8201079258493</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>14.81515106108805</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>16.8201079258493</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>105.3728109412411</v>
       </c>
       <c r="V4" t="n">
-        <v>16.8201079258493</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>16.8201079258493</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>36.98608264872782</v>
+        <v>2.894095829209384</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>231.3474543231458</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>231.3474543231458</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.56332756069561</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -993,7 +993,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>101.1842021182708</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>231.3474543231458</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>231.3474543231458</v>
+        <v>228.7007320543322</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>345.9134855938049</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>130.6779274403783</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>38.69730777810975</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.41818240615941</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>69.07229461213976</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1357,7 +1357,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379286</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781754</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517069</v>
+        <v>49.8644746681769</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291327</v>
+        <v>98.30449406591947</v>
       </c>
       <c r="T11" t="n">
-        <v>137.9235671458075</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9690424221581</v>
+        <v>218.8661164351643</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682624</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>74.81752523822371</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.510442554682953</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295878</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>84.04665658034625</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579023</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.79622075343367</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T13" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451442</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>370.399574391942</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>78.59985199335568</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403517</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H14" t="n">
-        <v>171.6584488407698</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517068</v>
+        <v>49.86447466817698</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291325</v>
+        <v>98.30449406591956</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4635748116829</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221581</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>310.7154087289636</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>133.7586683259801</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794368</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>114.2441354541462</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.590536241671</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579021</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042745</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4493215784102</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219527</v>
       </c>
       <c r="W16" t="n">
-        <v>84.92932745767412</v>
+        <v>240.6551974582938</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.3366531309929</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G17" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139202</v>
+        <v>79.2247828508133</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200582</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W17" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787095</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791559</v>
+        <v>104.5982253773369</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806652</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014978</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426898</v>
+        <v>60.47910383369026</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.7365831489055</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>125.8937539095316</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220961</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139203</v>
+        <v>79.2247828508133</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200582</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773369</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606852</v>
       </c>
       <c r="H22" t="n">
-        <v>83.4279726501498</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>129.824368835862</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>162.1174893535207</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220961</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139223</v>
+        <v>79.2247828508133</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200563</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>76.79331107375164</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773369</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606852</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>129.824368835862</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220961</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>88.04314577169765</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>107.7276828060597</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2807,10 +2807,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2855,7 +2855,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>44.10882205087908</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3004,19 +3004,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>130.3369520387965</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>341.3399367874144</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>352.1366999334012</v>
@@ -3044,10 +3044,10 @@
         <v>339.957593273648</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>155.3010112201617</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>200.1062088827035</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>315.239289863735</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426901</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3743,7 +3743,7 @@
         <v>341.3399367874144</v>
       </c>
       <c r="D41" t="n">
-        <v>335.735882615422</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E41" t="n">
         <v>345.5134053358241</v>
@@ -3758,7 +3758,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364963</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.1096480734034</v>
+        <v>391.1589950301166</v>
       </c>
       <c r="C2" t="n">
-        <v>38.02546142707759</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D2" t="n">
-        <v>37.60193556054219</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E2" t="n">
-        <v>27.30212411784296</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F2" t="n">
-        <v>10.31211611193457</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>5.624236045170822</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>17.99751548065875</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>17.99751548065875</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>17.99751548065875</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>17.99751548065875</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>33.97661801021559</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>33.97661801021559</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>33.97661801021559</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>50.29042369748881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>50.29042369748881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>50.29042369748881</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>50.29042369748881</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>50.29042369748881</v>
+        <v>1198.919841537159</v>
       </c>
       <c r="X2" t="n">
-        <v>50.29042369748881</v>
+        <v>798.2764437061119</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.29042369748881</v>
+        <v>397.339770654202</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.345608634067944</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1.345608634067944</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>1.345608634067944</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>1.345608634067944</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>1.345608634067944</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345608634067944</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>17.99751548065875</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>17.99751548065875</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>17.99751548065875</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>17.99751548065875</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>34.64942232724955</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>51.30132917384036</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>67.2804317033972</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>50.29042369748881</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>33.30041569158043</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>18.33561663997633</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1.345608634067944</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1.345608634067944</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1.345608634067944</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.345608634067944</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.345608634067944</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>17.99751548065875</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>17.99751548065875</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>34.64942232724955</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>34.64942232724955</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>50.62852485680639</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>67.2804317033972</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>67.2804317033972</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>67.2804317033972</v>
+        <v>953.5135740135336</v>
       </c>
       <c r="V4" t="n">
-        <v>50.29042369748881</v>
+        <v>679.6278289530555</v>
       </c>
       <c r="W4" t="n">
-        <v>33.30041569158043</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="X4" t="n">
-        <v>18.33561663997633</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.345608634067944</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.35288781724367</v>
+        <v>1202.163132231338</v>
       </c>
       <c r="C5" t="n">
-        <v>88.26870117091785</v>
+        <v>1196.078945585012</v>
       </c>
       <c r="D5" t="n">
-        <v>87.84517530438245</v>
+        <v>1195.655419718477</v>
       </c>
       <c r="E5" t="n">
-        <v>77.54536386168321</v>
+        <v>781.3152042353738</v>
       </c>
       <c r="F5" t="n">
-        <v>60.55535585577483</v>
+        <v>764.3251962294654</v>
       </c>
       <c r="G5" t="n">
-        <v>55.86747578901108</v>
+        <v>355.5969121222976</v>
       </c>
       <c r="H5" t="n">
-        <v>55.86747578901108</v>
+        <v>44.68841475001557</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585167</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>247.541776125766</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>467.3218577327546</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>467.3218577327546</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>467.3218577327546</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>467.3218577327546</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>696.3558375126689</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>925.3898172925833</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>925.3898172925833</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925833</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>790.1087420866842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>567.9022580335429</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>334.217960737436</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>334.217960737436</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W5" t="n">
-        <v>100.5336634413291</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X5" t="n">
-        <v>100.5336634413291</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.5336634413291</v>
+        <v>1208.343907855424</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676.5900468526263</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>542.5949756015719</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6978178209644</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>305.2050018132924</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>196.2451219957969</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>89.25500931013562</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>18.50779634585167</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585167</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084849</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K6" t="n">
-        <v>211.3206539084849</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L6" t="n">
-        <v>211.3206539084849</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M6" t="n">
-        <v>440.3546336883993</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>669.3886134683137</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>669.3886134683137</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>669.3886134683137</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.8302979299534</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925833</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>925.3898172925833</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>766.0479534795916</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>766.0479534795916</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>766.0479534795916</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>766.0479534795916</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>766.0479534795916</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>766.0479534795916</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.115251540395</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="C7" t="n">
-        <v>168.115251540395</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D7" t="n">
-        <v>168.115251540395</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
-        <v>168.115251540395</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>168.115251540395</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>168.115251540395</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>18.50779634585167</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585167</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>32.59034575106219</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>32.59034575106219</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>238.2878779528402</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>467.3218577327546</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>696.3558375126689</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>925.3898172925833</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>925.3898172925833</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925833</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>925.3898172925833</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>823.1835525266532</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>589.4992552305463</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>355.8149579344394</v>
+        <v>828.9399163235425</v>
       </c>
       <c r="V7" t="n">
-        <v>355.8149579344394</v>
+        <v>828.9399163235425</v>
       </c>
       <c r="W7" t="n">
-        <v>355.8149579344394</v>
+        <v>549.8702518324169</v>
       </c>
       <c r="X7" t="n">
-        <v>355.8149579344394</v>
+        <v>549.8702518324169</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.8149579344394</v>
+        <v>549.8702518324169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>725.3258129196319</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C8" t="n">
-        <v>719.241626273306</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
-        <v>718.8181004067706</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>708.5182889640713</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>691.5282809581629</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1207197522994</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>285.3976938477716</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L8" t="n">
-        <v>285.3976938477716</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M8" t="n">
-        <v>426.3909626105813</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>426.3909626105813</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1338.404634947726</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1081.344143207237</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>731.5065885437173</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>731.5065885437173</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X8" t="n">
-        <v>731.5065885437173</v>
+        <v>1430.550391908565</v>
       </c>
       <c r="Y8" t="n">
-        <v>731.5065885437173</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>657.6354495973663</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>523.640378346312</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>406.7432205657044</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>286.2504045580324</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>177.290524740537</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>70.30041205487569</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K9" t="n">
-        <v>438.2641504114549</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L9" t="n">
-        <v>824.5154023641696</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M9" t="n">
-        <v>1210.766654316884</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N9" t="n">
-        <v>1210.766654316884</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O9" t="n">
-        <v>1210.766654316884</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1560.611119000868</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1346.899591993901</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1133.66642373023</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>957.340441869123</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>797.938482232953</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.7194744818283</v>
+        <v>225.4020766599658</v>
       </c>
       <c r="C10" t="n">
-        <v>475.7194744818283</v>
+        <v>54.30870422168226</v>
       </c>
       <c r="D10" t="n">
-        <v>475.7194744818283</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>314.8086593501478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>314.8086593501478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1475.338400676267</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1405.56840611855</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U10" t="n">
-        <v>1405.56840611855</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V10" t="n">
-        <v>1405.56840611855</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W10" t="n">
-        <v>1126.498741627425</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X10" t="n">
-        <v>888.154879487108</v>
+        <v>225.4020766599658</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.4191808758727</v>
+        <v>225.4020766599658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1906.448852609567</v>
+        <v>2289.51253322063</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.224104752056</v>
+        <v>1915.371548986345</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.224104752056</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.783732098172</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6531628810782</v>
+        <v>783.4878109073251</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8247216031294</v>
+        <v>410.7431332526023</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J11" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K11" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L11" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M11" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N11" t="n">
-        <v>3116.800127225762</v>
+        <v>2737.999098293068</v>
       </c>
       <c r="O11" t="n">
-        <v>3760.430983642867</v>
+        <v>3381.629954710173</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.207360317934</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q11" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360727</v>
       </c>
       <c r="T11" t="n">
-        <v>3881.50939345054</v>
+        <v>3986.983958760031</v>
       </c>
       <c r="U11" t="n">
-        <v>3662.348744539269</v>
+        <v>3765.907073471986</v>
       </c>
       <c r="V11" t="n">
-        <v>3350.411032704969</v>
+        <v>3452.053125260912</v>
       </c>
       <c r="W11" t="n">
-        <v>3004.550574669357</v>
+        <v>3104.276430848526</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.807019667528</v>
+        <v>3028.703173032139</v>
       </c>
       <c r="Y11" t="n">
-        <v>2278.770189444837</v>
+        <v>2663.750106432674</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="L12" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="M12" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="N12" t="n">
-        <v>1604.641353145908</v>
+        <v>836.7167795557291</v>
       </c>
       <c r="O12" t="n">
-        <v>2128.853343056859</v>
+        <v>1540.673870101623</v>
       </c>
       <c r="P12" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="Q12" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9813238947254</v>
+        <v>223.0956526484074</v>
       </c>
       <c r="C13" t="n">
-        <v>501.7877942856611</v>
+        <v>87.98588666256943</v>
       </c>
       <c r="D13" t="n">
-        <v>501.7877942856611</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="E13" t="n">
-        <v>501.7877942856611</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="F13" t="n">
-        <v>375.0565112254714</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="G13" t="n">
-        <v>245.7059629802338</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="H13" t="n">
-        <v>160.8103502728135</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476424</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846206</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820314</v>
+        <v>944.3162506864518</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R13" t="n">
-        <v>1908.928131482549</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S13" t="n">
-        <v>1908.928131482549</v>
+        <v>1697.291970655665</v>
       </c>
       <c r="T13" t="n">
-        <v>1707.279235288471</v>
+        <v>1493.726838084813</v>
       </c>
       <c r="U13" t="n">
-        <v>1462.380930663814</v>
+        <v>1246.912297083382</v>
       </c>
       <c r="V13" t="n">
-        <v>1226.395028432555</v>
+        <v>1009.010158475349</v>
       </c>
       <c r="W13" t="n">
-        <v>985.2252067706484</v>
+        <v>765.9241004366684</v>
       </c>
       <c r="X13" t="n">
-        <v>784.7811874595507</v>
+        <v>563.5638447487969</v>
       </c>
       <c r="Y13" t="n">
-        <v>784.7811874595507</v>
+        <v>374.8117525900067</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2173.396657710659</v>
+        <v>2000.425999658414</v>
       </c>
       <c r="C14" t="n">
-        <v>1801.171909853148</v>
+        <v>1626.285015424129</v>
       </c>
       <c r="D14" t="n">
-        <v>1434.607822775428</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E14" t="n">
-        <v>1058.167450121543</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F14" t="n">
-        <v>675.0368809044501</v>
+        <v>783.4878109073252</v>
       </c>
       <c r="G14" t="n">
-        <v>304.2084396265013</v>
+        <v>410.7431332526024</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J14" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K14" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L14" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M14" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N14" t="n">
-        <v>2583.702153496821</v>
+        <v>2737.999098293068</v>
       </c>
       <c r="O14" t="n">
-        <v>3227.333009913926</v>
+        <v>3381.629954710173</v>
       </c>
       <c r="P14" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q14" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360727</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.519486717332</v>
+        <v>3986.983958760031</v>
       </c>
       <c r="U14" t="n">
-        <v>3617.358837806061</v>
+        <v>3765.907073471986</v>
       </c>
       <c r="V14" t="n">
-        <v>3617.358837806061</v>
+        <v>3452.053125260912</v>
       </c>
       <c r="W14" t="n">
-        <v>3271.498379770449</v>
+        <v>3104.276430848526</v>
       </c>
       <c r="X14" t="n">
-        <v>2908.75482476862</v>
+        <v>2739.616639469923</v>
       </c>
       <c r="Y14" t="n">
-        <v>2545.717994545929</v>
+        <v>2374.663572870458</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J15" t="n">
-        <v>275.1770047689919</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K15" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="L15" t="n">
-        <v>1392.071432953579</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="M15" t="n">
-        <v>1392.071432953579</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="N15" t="n">
-        <v>1392.071432953579</v>
+        <v>1398.422672044259</v>
       </c>
       <c r="O15" t="n">
-        <v>1392.071432953579</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="P15" t="n">
-        <v>1953.777325442109</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="Q15" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.3990977029617</v>
+        <v>574.5090261298056</v>
       </c>
       <c r="C16" t="n">
-        <v>773.2055680938973</v>
+        <v>439.3992601439671</v>
       </c>
       <c r="D16" t="n">
-        <v>651.6107662460264</v>
+        <v>439.3992601439671</v>
       </c>
       <c r="E16" t="n">
-        <v>528.5997939435649</v>
+        <v>314.4720514647316</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8685108833753</v>
+        <v>199.0739348443819</v>
       </c>
       <c r="G16" t="n">
-        <v>272.5179626381377</v>
+        <v>199.0739348443819</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8103502728135</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684869</v>
+        <v>134.8001681915355</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476426</v>
+        <v>324.6200285978149</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846206</v>
+        <v>619.7846615619169</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820317</v>
+        <v>944.3162506864516</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.7271432332</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708912</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R16" t="n">
-        <v>1861.555255987168</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="S16" t="n">
-        <v>1861.555255987168</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="T16" t="n">
-        <v>1659.90635979309</v>
+        <v>1693.424111624612</v>
       </c>
       <c r="U16" t="n">
-        <v>1415.008055168433</v>
+        <v>1446.609570623181</v>
       </c>
       <c r="V16" t="n">
-        <v>1179.022152937174</v>
+        <v>1208.707432015148</v>
       </c>
       <c r="W16" t="n">
-        <v>1093.234953484978</v>
+        <v>965.6213739764675</v>
       </c>
       <c r="X16" t="n">
-        <v>1093.234953484978</v>
+        <v>763.2611182885959</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.3990977029617</v>
+        <v>574.5090261298056</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224929</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188925</v>
+        <v>725.6705041948821</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109736</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.545806761951</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J17" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K17" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L17" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M17" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N17" t="n">
-        <v>2583.702153496821</v>
+        <v>2737.999098293068</v>
       </c>
       <c r="O17" t="n">
-        <v>3227.333009913926</v>
+        <v>3381.629954710173</v>
       </c>
       <c r="P17" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q17" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861983</v>
+        <v>4192.479271931541</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.52882990166</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184429</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544169</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702598</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866159</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J18" t="n">
-        <v>82.36414720635868</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K18" t="n">
-        <v>538.1704034716574</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="L18" t="n">
-        <v>1199.258575390946</v>
+        <v>939.3511155842051</v>
       </c>
       <c r="M18" t="n">
-        <v>1199.258575390946</v>
+        <v>939.3511155842051</v>
       </c>
       <c r="N18" t="n">
-        <v>1199.258575390946</v>
+        <v>939.3511155842051</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.21566593684</v>
+        <v>1190.82940541764</v>
       </c>
       <c r="P18" t="n">
-        <v>1903.21566593684</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578618</v>
+        <v>581.6458800181231</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695259</v>
+        <v>465.8085496030992</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423836</v>
+        <v>361.5699469492686</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606508</v>
+        <v>255.9151738408475</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211896</v>
+        <v>146.540089974698</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966807</v>
+        <v>146.540089974698</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>146.540089974698</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944908</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037254</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514387</v>
+        <v>676.4514038707825</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182602</v>
+        <v>1920.935149029681</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1736.642452029642</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1509.100346599026</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894793</v>
+        <v>1290.470643561807</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153615</v>
+        <v>1066.657021093941</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632463</v>
+        <v>883.569200976884</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019586</v>
+        <v>714.0895443889081</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224929</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188925</v>
+        <v>725.6705041948821</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109737</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.545806761951</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J20" t="n">
-        <v>82.36414720635868</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K20" t="n">
-        <v>620.5236483153982</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L20" t="n">
-        <v>1333.115048127636</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M20" t="n">
-        <v>2109.43363911939</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N20" t="n">
-        <v>2862.614655758008</v>
+        <v>3119.886066121687</v>
       </c>
       <c r="O20" t="n">
-        <v>3506.245512175113</v>
+        <v>3381.629954710173</v>
       </c>
       <c r="P20" t="n">
-        <v>4035.402210094265</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q20" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931541</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.52882990166</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.72438018443</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.14286754417</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702598</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866159</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J21" t="n">
-        <v>82.36414720635868</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K21" t="n">
-        <v>538.1704034716574</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="L21" t="n">
-        <v>1199.258575390946</v>
+        <v>939.3511155842051</v>
       </c>
       <c r="M21" t="n">
-        <v>1199.258575390946</v>
+        <v>1782.328196278772</v>
       </c>
       <c r="N21" t="n">
-        <v>1199.258575390946</v>
+        <v>1782.328196278772</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.21566593684</v>
+        <v>1782.328196278772</v>
       </c>
       <c r="P21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="Q21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578621</v>
+        <v>632.5502251969058</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695262</v>
+        <v>516.7128947818817</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423836</v>
+        <v>412.4742921280512</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606509</v>
+        <v>306.8195190196301</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211898</v>
+        <v>197.4444351534808</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966808</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="H22" t="n">
-        <v>133.373417352085</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944907</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037253</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707824</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1916.964830922276</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1732.672133922237</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1505.130028491621</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1341.37498874059</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1117.561366272724</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632465</v>
+        <v>934.4735461556666</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019588</v>
+        <v>764.9938895676908</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188926</v>
+        <v>725.6705041948819</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109736</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.545806761951</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J23" t="n">
-        <v>82.36414720635868</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K23" t="n">
-        <v>620.5236483153982</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L23" t="n">
-        <v>1333.115048127636</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M23" t="n">
-        <v>2109.43363911939</v>
+        <v>1984.81808165445</v>
       </c>
       <c r="N23" t="n">
-        <v>2862.614655758008</v>
+        <v>2737.999098293068</v>
       </c>
       <c r="O23" t="n">
-        <v>3506.245512175113</v>
+        <v>3381.629954710173</v>
       </c>
       <c r="P23" t="n">
-        <v>4035.402210094265</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q23" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931541</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901659</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184431</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544171</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="K24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="L24" t="n">
-        <v>82.36414720635868</v>
+        <v>746.5382580215719</v>
       </c>
       <c r="M24" t="n">
-        <v>925.3412279009253</v>
+        <v>746.5382580215719</v>
       </c>
       <c r="N24" t="n">
-        <v>1798.999320012543</v>
+        <v>746.5382580215719</v>
       </c>
       <c r="O24" t="n">
-        <v>1798.999320012543</v>
+        <v>1450.495348567466</v>
       </c>
       <c r="P24" t="n">
-        <v>2128.853343056859</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q24" t="n">
-        <v>2128.853343056859</v>
+        <v>2102.379762590153</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578622</v>
+        <v>632.5502251969056</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695263</v>
+        <v>516.7128947818817</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423839</v>
+        <v>412.4742921280512</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606509</v>
+        <v>306.8195190196301</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>197.4444351534808</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944907</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037253</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514387</v>
+        <v>676.4514038707824</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1916.964830922276</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1732.672133922237</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1505.130028491621</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1286.500325454403</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1062.686702986536</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>879.5988828694791</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>710.1192262815032</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6263,13 +6263,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>212.9817385874103</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.9991721489652</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="C28" t="n">
-        <v>832.7027105453666</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="D28" t="n">
-        <v>703.0049767029616</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="E28" t="n">
-        <v>571.8910724059659</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="F28" t="n">
-        <v>437.056857351242</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
         <v>609.3875320253558</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U28" t="n">
-        <v>1644.203548008749</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.203548008749</v>
+        <v>992.8374564650674</v>
       </c>
       <c r="W28" t="n">
-        <v>1535.387706790507</v>
+        <v>743.5647028086265</v>
       </c>
       <c r="X28" t="n">
-        <v>1326.840755484875</v>
+        <v>535.0177515029948</v>
       </c>
       <c r="Y28" t="n">
-        <v>1131.901967708325</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764623</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6476,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6543,22 +6543,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>212.9817385874103</v>
+        <v>242.9542576166784</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>242.9542576166784</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>742.4228611986015</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="C31" t="n">
-        <v>697.8684954906428</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="D31" t="n">
-        <v>568.1707616482377</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="E31" t="n">
-        <v>437.0568573512421</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512421</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751529</v>
       </c>
       <c r="W31" t="n">
-        <v>937.361648975152</v>
+        <v>688.0888953187122</v>
       </c>
       <c r="X31" t="n">
-        <v>937.361648975152</v>
+        <v>479.5419440130805</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4228611986015</v>
+        <v>347.8884571052051</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2287.844286976294</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1943.056472039512</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1538.592542132572</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415257</v>
+        <v>1124.252326649469</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188925</v>
+        <v>768.5586903531043</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>425.1671819958841</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.2586846236021</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>341.6111460542108</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.202545866449</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>1830.521136858203</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2583.702153496821</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3227.333009913926</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4370.034101022046</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568246</v>
+        <v>4167.906617302144</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3818.069062638625</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3499.645537523741</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458691</v>
+        <v>3099.002139692694</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2698.065466640784</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>538.1704034716574</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1045.492268464351</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1045.492268464351</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N33" t="n">
-        <v>1045.492268464351</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O33" t="n">
-        <v>1749.449359010245</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1749.449359010245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578622</v>
+        <v>725.2201177421258</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695262</v>
+        <v>619.4635210537899</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423839</v>
+        <v>525.3056521266475</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606509</v>
+        <v>429.7316127449146</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211897</v>
+        <v>330.4372626054534</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966807</v>
+        <v>228.5236472809448</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520849</v>
+        <v>144.2529678363491</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240931</v>
+        <v>171.3628210083568</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588548</v>
+        <v>389.9517226431183</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514389</v>
+        <v>713.8853968357025</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704456</v>
+        <v>1067.186027188719</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.18183301123</v>
+        <v>1412.061383495493</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250228</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412364</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611661</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037009</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.989057637879</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632465</v>
+        <v>1006.98197124751</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019588</v>
+        <v>847.5830483862226</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F35" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H35" t="n">
         <v>103.3791341393379</v>
@@ -6935,25 +6935,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>165.1692974300282</v>
       </c>
       <c r="K35" t="n">
-        <v>620.5236483153982</v>
+        <v>703.3287985390677</v>
       </c>
       <c r="L35" t="n">
-        <v>1333.115048127636</v>
+        <v>1415.920198351306</v>
       </c>
       <c r="M35" t="n">
-        <v>2109.43363911939</v>
+        <v>2192.23878934306</v>
       </c>
       <c r="N35" t="n">
-        <v>2862.614655758008</v>
+        <v>2945.419805981678</v>
       </c>
       <c r="O35" t="n">
-        <v>3506.245512175113</v>
+        <v>3589.050662398783</v>
       </c>
       <c r="P35" t="n">
-        <v>4035.402210094265</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="Q35" t="n">
         <v>4118.207360317934</v>
@@ -7023,19 +7023,19 @@
         <v>936.2651766882802</v>
       </c>
       <c r="M36" t="n">
-        <v>1779.242257382847</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.242257382847</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="O36" t="n">
-        <v>1779.242257382847</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="P36" t="n">
-        <v>1779.242257382847</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q36" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R36" t="n">
         <v>2128.853343056859</v>
@@ -7093,19 +7093,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240925</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588541</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O37" t="n">
         <v>1724.779017250227</v>
@@ -7151,7 +7151,7 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305404</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D38" t="n">
         <v>1397.039440148413</v>
@@ -7160,10 +7160,10 @@
         <v>1048.036000415257</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188921</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616718</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7172,28 +7172,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K38" t="n">
-        <v>620.5236483153982</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L38" t="n">
-        <v>1094.759191556014</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>1871.077782547768</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N38" t="n">
-        <v>2624.258799186386</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O38" t="n">
-        <v>3267.889655603491</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
@@ -7254,25 +7254,25 @@
         <v>275.1770047689919</v>
       </c>
       <c r="K39" t="n">
-        <v>730.9832610342906</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L39" t="n">
-        <v>1392.071432953579</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.071432953579</v>
+        <v>1118.154085463559</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.071432953579</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O39" t="n">
-        <v>1392.071432953579</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P39" t="n">
-        <v>1953.777325442109</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7333,10 +7333,10 @@
         <v>160.4832705240929</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588541</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
@@ -7397,40 +7397,40 @@
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188928</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616725</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3791341393379</v>
+        <v>103.3791341393381</v>
       </c>
       <c r="I41" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>620.5236483153982</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1333.115048127636</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M41" t="n">
-        <v>2109.43363911939</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N41" t="n">
-        <v>2862.614655758008</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.245512175113</v>
+        <v>3548.494016709218</v>
       </c>
       <c r="P41" t="n">
-        <v>4035.402210094265</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q41" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R41" t="n">
         <v>4118.207360317934</v>
@@ -7488,28 +7488,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K42" t="n">
-        <v>521.6786410367165</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L42" t="n">
-        <v>521.6786410367165</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M42" t="n">
-        <v>521.6786410367165</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N42" t="n">
-        <v>1395.336733148334</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.293823694229</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="P42" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q42" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7558,10 +7558,10 @@
         <v>319.5577121211895</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H43" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I43" t="n">
         <v>82.36414720635868</v>
@@ -7631,13 +7631,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188924</v>
+        <v>692.3423641188929</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H44" t="n">
         <v>103.3791341393379</v>
@@ -7658,7 +7658,7 @@
         <v>2363.619110587144</v>
       </c>
       <c r="N44" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O44" t="n">
         <v>3227.333009913926</v>
@@ -7679,7 +7679,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V44" t="n">
         <v>3415.168857654675</v>
@@ -7725,25 +7725,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4085576997582</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2148139650569</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L45" t="n">
-        <v>1217.302985884345</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M45" t="n">
-        <v>1217.302985884345</v>
+        <v>1586.429399820214</v>
       </c>
       <c r="N45" t="n">
-        <v>1217.302985884345</v>
+        <v>1586.429399820214</v>
       </c>
       <c r="O45" t="n">
-        <v>1217.302985884345</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P45" t="n">
-        <v>1779.008878372875</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q45" t="n">
         <v>2128.853343056859</v>
@@ -7804,13 +7804,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240926</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588543</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M46" t="n">
         <v>1056.306476704455</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.14369925915724</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>109.0527983622323</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.8539123250013</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1893467258493</v>
+        <v>169.1029840574859</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>70.0135013195993</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>74.57158692584929</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>70.40014260841672</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>69.07047748491613</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.2154056786093</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>72.59994956575409</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>304.6710456564538</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>311.1364721045186</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5372299489289</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>324.99681760403</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,7 +8292,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574859</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8301,19 +8301,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9117380615633</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>284.5408477168958</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>285.4215927085152</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8374,25 +8374,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>262.4035789462025</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>287.6123968219259</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315653</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4223523961422</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>235.7076676518026</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K9" t="n">
-        <v>272.2288842682561</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8550,7 +8550,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8699,19 +8699,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>467.9567845040925</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8778,19 +8778,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>351.6382794423831</v>
       </c>
       <c r="O12" t="n">
-        <v>587.2585395161113</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>315.2183947057874</v>
+        <v>467.9567845040925</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9009,25 +9009,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>724.2575066402586</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.5370807419596</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>315.2183947057874</v>
+        <v>467.9567845040925</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9240,10 +9240,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9255,16 +9255,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>311.7699535792271</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>284.6094640806152</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9413,16 +9413,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>357.5775418767784</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,25 +9477,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>282.1764805785802</v>
+        <v>407.4021457846335</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9644,7 +9644,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>491.7060054299083</v>
       </c>
       <c r="N23" t="n">
         <v>853.701196452193</v>
@@ -9656,10 +9656,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>387.4455168657486</v>
+        <v>359.3504929206863</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>692.6536970353598</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10191,13 +10191,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>176.7732988419765</v>
+        <v>207.048570588712</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10206,10 +10206,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10349,10 +10349,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10428,28 +10428,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>568.560852086297</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>156.9651572158024</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10604,7 +10604,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>173.6753702816465</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>87.31214281472352</v>
@@ -10671,7 +10671,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>878.9624476999982</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10683,10 +10683,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>409.8351292866687</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>574.5111993159919</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10835,7 +10835,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10844,7 +10844,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10902,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>123.485697492898</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -10920,10 +10920,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.5370807419596</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11072,16 +11072,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>529.2442094474551</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.6753702816465</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>304.8173345701957</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11151,16 +11151,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>571.1716873458279</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>315.2183947057874</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11373,28 +11373,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>69.59591606606014</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663082</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5400076658754</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.1956682265926</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>119.7654852877154</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794368</v>
+        <v>123.677936592443</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>129.9541167757913</v>
       </c>
       <c r="H13" t="n">
-        <v>26.54387966132478</v>
+        <v>112.4876102546772</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.55881504879643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042747</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>286.1956682265938</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>98.62011915686253</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159572</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.301864929177</v>
+        <v>150.1989389421834</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>13.11690878844787</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>79.55881504879652</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.79622075343376</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8287959876134</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179866</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.8744055606852</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.40789903957106</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>29.7165095383275</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.930614926330365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.40789903957106</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>60.47910383369026</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>29.7165095383275</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>54.32591665332569</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>54.32591665332546</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>93.40789903957106</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>60.47910383369026</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.7165095383275</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>48.03579966567635</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.0523433138166</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>95.77467493668357</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>62.65244785998836</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1064071.968055751</v>
+        <v>1078049.279734768</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1070272.891838079</v>
+        <v>1078049.279734768</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1074863.167790019</v>
+        <v>1078049.279734768</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1008089.208168572</v>
+        <v>1022615.978560267</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1008089.208168572</v>
+        <v>1022615.978560266</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1086046.884773858</v>
+        <v>1077375.535831723</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1086046.884773858</v>
+        <v>1077375.535831724</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1086046.884773858</v>
+        <v>1077375.535831724</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1086046.884773858</v>
+        <v>1088190.046324808</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81441.19651622852</v>
+        <v>81441.19651622853</v>
       </c>
       <c r="C2" t="n">
-        <v>81441.19651622848</v>
+        <v>81441.19651622855</v>
       </c>
       <c r="D2" t="n">
         <v>81441.19651622851</v>
       </c>
       <c r="E2" t="n">
-        <v>75444.45216197577</v>
+        <v>76515.13459276783</v>
       </c>
       <c r="F2" t="n">
-        <v>75444.45216197579</v>
+        <v>76515.13459276782</v>
       </c>
       <c r="G2" t="n">
-        <v>81441.19651622858</v>
+        <v>80727.40822903362</v>
       </c>
       <c r="H2" t="n">
-        <v>81441.19651622846</v>
+        <v>80727.40822903368</v>
       </c>
       <c r="I2" t="n">
-        <v>81441.19651622859</v>
+        <v>80727.40822903371</v>
       </c>
       <c r="J2" t="n">
-        <v>78924.71904615722</v>
+        <v>78924.7190461572</v>
       </c>
       <c r="K2" t="n">
-        <v>78924.71904615716</v>
+        <v>78924.71904615719</v>
       </c>
       <c r="L2" t="n">
-        <v>81441.19651622855</v>
+        <v>81441.19651622843</v>
       </c>
       <c r="M2" t="n">
-        <v>81441.19651622862</v>
+        <v>81441.19651622861</v>
       </c>
       <c r="N2" t="n">
         <v>81441.19651622859</v>
       </c>
       <c r="O2" t="n">
-        <v>81441.19651622843</v>
+        <v>81441.19651622846</v>
       </c>
       <c r="P2" t="n">
         <v>81441.19651622853</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633422</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741109</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>191541.2671994905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321699</v>
+        <v>15263.76897208501</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231429</v>
+        <v>170419.5815951231</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860684</v>
+        <v>43411.34198497304</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>102190.6169864199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853398</v>
+        <v>8335.384408985454</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316416.0912834472</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="C4" t="n">
-        <v>253426.014804989</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>206797.1828083812</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>65901.69200756308</v>
+        <v>64610.74773121079</v>
       </c>
       <c r="F4" t="n">
-        <v>65901.69200756311</v>
+        <v>64610.74773121071</v>
       </c>
       <c r="G4" t="n">
-        <v>93350.70449121665</v>
+        <v>83891.66831012967</v>
       </c>
       <c r="H4" t="n">
-        <v>93350.70449121666</v>
+        <v>83891.66831012967</v>
       </c>
       <c r="I4" t="n">
-        <v>93350.70449121665</v>
+        <v>83891.66831012975</v>
       </c>
       <c r="J4" t="n">
         <v>60002.64896085223</v>
       </c>
       <c r="K4" t="n">
-        <v>60002.64896085223</v>
+        <v>60002.64896085229</v>
       </c>
       <c r="L4" t="n">
+        <v>71580.09179883063</v>
+      </c>
+      <c r="M4" t="n">
         <v>93350.70449121665</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>93350.70449121663</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93350.70449121665</v>
       </c>
       <c r="O4" t="n">
         <v>93350.70449121663</v>
       </c>
       <c r="P4" t="n">
-        <v>93350.70449121667</v>
+        <v>93350.70449121666</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284727</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047764</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047764</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275261.9623575447</v>
+        <v>-333315.4746873782</v>
       </c>
       <c r="C6" t="n">
-        <v>-288985.840477942</v>
+        <v>-158359.9647942641</v>
       </c>
       <c r="D6" t="n">
-        <v>-232034.5735383769</v>
+        <v>-158359.9647942641</v>
       </c>
       <c r="E6" t="n">
-        <v>-277135.4997460947</v>
+        <v>-247672.3217668803</v>
       </c>
       <c r="F6" t="n">
-        <v>-56208.33159036144</v>
+        <v>-56131.05456738969</v>
       </c>
       <c r="G6" t="n">
-        <v>-101674.1801515548</v>
+        <v>-87983.23725154535</v>
       </c>
       <c r="H6" t="n">
-        <v>-79944.1292783379</v>
+        <v>-72719.46827946028</v>
       </c>
       <c r="I6" t="n">
-        <v>-79944.12927833777</v>
+        <v>-72719.46827946034</v>
       </c>
       <c r="J6" t="n">
-        <v>-96275.18335387413</v>
+        <v>-224892.9978360843</v>
       </c>
       <c r="K6" t="n">
-        <v>-109635.5607791393</v>
+        <v>-54473.41624096133</v>
       </c>
       <c r="L6" t="n">
-        <v>-135594.9978869447</v>
+        <v>-109853.3169389657</v>
       </c>
       <c r="M6" t="n">
-        <v>-239284.9327086323</v>
+        <v>-182134.7462647576</v>
       </c>
       <c r="N6" t="n">
-        <v>-79944.12927833777</v>
+        <v>-79944.12927833776</v>
       </c>
       <c r="O6" t="n">
-        <v>-81813.23178619132</v>
+        <v>-88279.51368732334</v>
       </c>
       <c r="P6" t="n">
-        <v>-79944.12927833789</v>
+        <v>-79944.12927833784</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231458</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152123</v>
+        <v>19.07971121510626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123183</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763134</v>
+        <v>54.2641774812163</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816748</v>
+        <v>10.41923051123182</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972965</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270711</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085197</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>619.4837152242651</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972965</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437376979</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>410.0681248552183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152123</v>
+        <v>19.07971121510626</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123183</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972965</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270711</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>303.5635712615673</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>117.1081565279908</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>100.3106682526387</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.09000186098496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.9283372490126</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>180.5621516920754</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>194.7543038110472</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>174.597355038096</v>
       </c>
       <c r="V4" t="n">
-        <v>254.326779684024</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>259.4588599203651</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>221.1452724578254</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.6682336992736</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>48.50216240736975</v>
+        <v>82.59414922688818</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>23.14243249993916</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>148.5752435330373</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.33667474853515</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27789,7 +27789,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.34364832061806</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>5.805797309919086</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>48.62271165619126</v>
+        <v>51.2694339250049</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>58.72751567229125</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27904,22 +27904,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>266.2493788810125</v>
       </c>
     </row>
     <row r="9">
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>31.34243305653136</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>145.4815158241597</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>168.0809570209252</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792067</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092689</v>
+        <v>35.62377038792059</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244791</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302865</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244841</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302684</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>54.38367794038146</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="J37" t="n">
-        <v>64.6834079924478</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K37" t="n">
         <v>64.68340799244812</v>
@@ -30180,7 +30180,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244777</v>
       </c>
       <c r="P37" t="n">
         <v>64.68340799244812</v>
@@ -30405,13 +30405,13 @@
         <v>64.68340799244812</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244777</v>
       </c>
       <c r="L40" t="n">
         <v>64.68340799244812</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N40" t="n">
         <v>64.68340799244812</v>
@@ -30463,7 +30463,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="D41" t="n">
-        <v>64.683407992448</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E41" t="n">
         <v>64.68340799244811</v>
@@ -30478,7 +30478,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8201079258493</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8201079258493</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>16.8201079258493</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8201079258493</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.14050760561297</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.8201079258493</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>231.3474543231458</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>222.0000824313015</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>231.3474543231458</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.3474543231458</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>231.3474543231458</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>231.3474543231458</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>228.7289742036765</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35094,25 +35094,25 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>207.775285052301</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>231.3474543231458</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231458</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>231.3474543231458</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>142.4174431947572</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K9" t="n">
-        <v>216.4031014836407</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,19 +35419,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>375.0444937474732</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>298.4448860486331</v>
       </c>
       <c r="O12" t="n">
-        <v>529.5070605161113</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.7456417799274</v>
+        <v>49.8485677669212</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031334</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500303</v>
+        <v>243.3767403370241</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943722</v>
+        <v>101.813699481366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>222.306103949168</v>
+        <v>375.0444937474732</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35729,25 +35729,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>671.0641132465087</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.8444622371208</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992742</v>
+        <v>49.84856776692111</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598905</v>
       </c>
       <c r="O16" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>222.306103949168</v>
+        <v>375.0444937474732</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>254.0184745792271</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9168455757764</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202736</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749968</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36133,16 +36133,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>264.3877662509953</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>227.9168455757764</v>
+        <v>353.1425107818298</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202736</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749968</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36364,7 +36364,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>398.4157809728628</v>
       </c>
       <c r="N23" t="n">
         <v>760.7889056955737</v>
@@ -36376,10 +36376,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>333.1858818629449</v>
+        <v>305.0908579178826</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202736</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749968</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858937</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>636.5391732245107</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
         <v>719.7892927396343</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>120.9475160573611</v>
+        <v>151.2227878040966</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>512.446328275448</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K34" t="n">
         <v>220.796870338143</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>83.64156588249449</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37324,7 +37324,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.64156588249439</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>821.3981639615807</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.14251078183</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144832</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37476,7 +37476,7 @@
         <v>348.3589457644181</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>326.865842665654</v>
       </c>
       <c r="P37" t="n">
         <v>272.4363779415515</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>479.0258012531471</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37555,7 +37555,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37564,7 +37564,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>70.29230409914798</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.8444622371208</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>78.90820537144864</v>
       </c>
       <c r="K40" t="n">
-        <v>220.796870338143</v>
+        <v>220.7968703381427</v>
       </c>
       <c r="L40" t="n">
         <v>327.2057315076608</v>
       </c>
       <c r="M40" t="n">
-        <v>356.8693235889056</v>
+        <v>356.869323588906</v>
       </c>
       <c r="N40" t="n">
         <v>348.3589457644181</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37792,16 +37792,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>436.0544338216719</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.64156588249439</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>248.9915517855804</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>516.9120523430241</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>222.306103949168</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.22667726606013</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>547.9029729663082</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
